--- a/1 - Anleitung/Materialliste.xlsx
+++ b/1 - Anleitung/Materialliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Eigene Dateien\Makerspace\Roboter\Sandmaltisch\Sandmaltisch RevD\Anleitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FE64A7-CE18-4D6D-9D40-81CCCD6CC521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDD990C-54B6-4479-88F7-5E58968FD768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BAA7EA73-824E-4872-A85E-B6C5B02D92A8}"/>
+    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{BAA7EA73-824E-4872-A85E-B6C5B02D92A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Materialliste" sheetId="8" r:id="rId1"/>
@@ -738,9 +738,6 @@
     <t>Moosgummimatten, 25x100cm, 1mm Stärke, weiss oder schwarz</t>
   </si>
   <si>
-    <t>Insgesamt wird eine Fläche von ca. 42x77cm benötigt.</t>
-  </si>
-  <si>
     <t>JST XH Stecker mit Kabel, 3 pin, 10cm</t>
   </si>
   <si>
@@ -879,10 +876,13 @@
     <t>Magnethandel.de</t>
   </si>
   <si>
-    <t>ca. 3.2kg</t>
-  </si>
-  <si>
     <t>Der Magnet sollte eine Senkbohrung von mindestens 4mm aufweisen, damit die M4-Schraube durchpasst. Eine Lieferung in die Schweiz ist leider sehr teuer. Alternativer Lieferant Supermagnete.ch kommt aufgrund der Mindestbestellmenge nicht günstiger. Auf AliExpress konnte ich keine Alternativen finden. Achtung: Topfmagnete sind ungeeignet!</t>
+  </si>
+  <si>
+    <t>ca. 3.5kg</t>
+  </si>
+  <si>
+    <t>Insgesamt wird eine Fläche von ca. 44x79cm benötigt.</t>
   </si>
 </sst>
 </file>
@@ -891,7 +891,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="[$EUR]\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$EUR]\ #,##0.00"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1028,7 +1028,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1106,20 +1106,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1141,7 +1129,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$EUR]\ #,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$EUR]\ #,##0.00"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1151,11 +1139,38 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$EUR]\ #,##0.00"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1167,38 +1182,74 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="164" formatCode="[$EUR]\ #,##0.00"/>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1207,69 +1258,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1426,44 +1414,44 @@
   <autoFilter ref="B5:H47" xr:uid="{6D5B232B-CA8A-4210-AC05-EFD82FF823BD}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{073858BF-EE87-4268-8E9B-C289FB1AC9A8}" name="Anzahl" dataDxfId="43" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{BC7F3003-7E3C-480A-B4C3-C32620DF4F92}" name="Produkt" dataDxfId="9" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{3A0499AA-B522-4D87-AA6D-2C144B43614E}" name="Total" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="4">
+    <tableColumn id="3" xr3:uid="{BC7F3003-7E3C-480A-B4C3-C32620DF4F92}" name="Produkt" dataDxfId="42" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{3A0499AA-B522-4D87-AA6D-2C144B43614E}" name="Total" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="4">
       <calculatedColumnFormula>#REF!*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{523CE03D-C59B-4634-866E-4AB03F3C12C2}" name="Lieferant" dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{49BAE1C5-92A1-4500-97B2-9E6C7FB68813}" name="Link" dataDxfId="42" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{C6ED0749-3909-426C-BF13-856E09513DE1}" name="Hinweis" dataDxfId="41" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{928936BA-F06B-4C60-96B0-9C18BE2987D7}" name="Status" dataDxfId="40" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{523CE03D-C59B-4634-866E-4AB03F3C12C2}" name="Lieferant" dataDxfId="40" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{49BAE1C5-92A1-4500-97B2-9E6C7FB68813}" name="Link" dataDxfId="39" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{C6ED0749-3909-426C-BF13-856E09513DE1}" name="Hinweis" dataDxfId="38" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{928936BA-F06B-4C60-96B0-9C18BE2987D7}" name="Status" dataDxfId="37" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FD50B609-FBD2-486B-B84A-9A6A6279751A}" name="Tabelle135" displayName="Tabelle135" ref="B4:G44" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38" totalsRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FD50B609-FBD2-486B-B84A-9A6A6279751A}" name="Tabelle135" displayName="Tabelle135" ref="B4:G44" totalsRowCount="1" headerRowDxfId="36" dataDxfId="35" totalsRowDxfId="34">
   <autoFilter ref="B4:G43" xr:uid="{6D5B232B-CA8A-4210-AC05-EFD82FF823BD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AE097796-2AAB-42E0-B499-6613EEFBFDB0}" name="Verbindung" totalsRowLabel="Ergebnis" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{AD6AFE2E-DF8F-43FF-AF3B-1627BE50299C}" name="Anzahl" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{AFD5420F-7B0C-48FE-B132-A649F31D8627}" name="Artikel" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{1340A571-934B-4B9A-B23D-6FDA42E3B577}" name="Abmessung" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{A3713BA1-C178-4B09-995F-EED66D08246E}" name="Empfehlung Kopf" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{E40B9EC5-ABB7-48E4-A5D4-C3008A29F545}" name="Hinweis" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{AE097796-2AAB-42E0-B499-6613EEFBFDB0}" name="Verbindung" totalsRowLabel="Ergebnis" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{AD6AFE2E-DF8F-43FF-AF3B-1627BE50299C}" name="Anzahl" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{AFD5420F-7B0C-48FE-B132-A649F31D8627}" name="Artikel" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{1340A571-934B-4B9A-B23D-6FDA42E3B577}" name="Abmessung" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{A3713BA1-C178-4B09-995F-EED66D08246E}" name="Empfehlung Kopf" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{E40B9EC5-ABB7-48E4-A5D4-C3008A29F545}" name="Hinweis" dataDxfId="23" totalsRowDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{657C5AD1-BC46-422C-A63D-F37A7105BD4B}" name="Tabelle2" displayName="Tabelle2" ref="B12:G26" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{657C5AD1-BC46-422C-A63D-F37A7105BD4B}" name="Tabelle2" displayName="Tabelle2" ref="B12:G26" totalsRowCount="1" headerRowDxfId="21" dataDxfId="20" totalsRowDxfId="19">
   <autoFilter ref="B12:G25" xr:uid="{657C5AD1-BC46-422C-A63D-F37A7105BD4B}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{C48F0E04-0285-4FF5-9A0F-94989777A5C2}" name="3MF-Datei" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{6C64B829-EB0D-4054-91E1-DFA8B2A862D1}" name="Druckzeit (h)" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{FE03BD70-E89C-433B-AE69-C3D43F322331}" name="Gewicht (g)" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{479D8F59-8F92-4AA6-B320-E9C5C4EE2384}" name="Sichtbar" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{95DB9691-08BD-4E47-9DB4-7F0205D576AB}" name="Filament" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{088329C1-1283-41B4-9BFC-A59082683237}" name="Hinweis" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{C48F0E04-0285-4FF5-9A0F-94989777A5C2}" name="3MF-Datei" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{6C64B829-EB0D-4054-91E1-DFA8B2A862D1}" name="Druckzeit (h)" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{FE03BD70-E89C-433B-AE69-C3D43F322331}" name="Gewicht (g)" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{479D8F59-8F92-4AA6-B320-E9C5C4EE2384}" name="Sichtbar" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{95DB9691-08BD-4E47-9DB4-7F0205D576AB}" name="Filament" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{088329C1-1283-41B4-9BFC-A59082683237}" name="Hinweis" dataDxfId="8" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1792,15 +1780,15 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H2" s="29">
-        <v>45412</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -1834,7 +1822,7 @@
       <c r="C6" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1856,7 +1844,7 @@
       <c r="C7" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1877,7 +1865,7 @@
       <c r="C8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1896,7 +1884,7 @@
       <c r="C9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1906,7 +1894,7 @@
         <v>127</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="7"/>
@@ -1918,7 +1906,7 @@
       <c r="C10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1928,7 +1916,7 @@
         <v>128</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="7"/>
@@ -1940,7 +1928,7 @@
       <c r="C11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1950,7 +1938,7 @@
         <v>129</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="7"/>
@@ -1962,7 +1950,7 @@
       <c r="C12" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1981,9 +1969,9 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D13" s="32">
+        <v>222</v>
+      </c>
+      <c r="D13" s="31">
         <v>1.5</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1993,18 +1981,18 @@
         <v>211</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:9" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14" s="32">
+        <v>221</v>
+      </c>
+      <c r="D14" s="31">
         <v>1.5</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2025,7 +2013,7 @@
       <c r="C15" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2046,17 +2034,17 @@
       <c r="C16" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>216</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="18"/>
@@ -2068,7 +2056,7 @@
       <c r="C17" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2078,7 +2066,7 @@
         <v>134</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="7"/>
@@ -2090,7 +2078,7 @@
       <c r="C18" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="31">
         <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2100,7 +2088,7 @@
         <v>199</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="7"/>
@@ -2112,7 +2100,7 @@
       <c r="C19" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <v>4</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -2132,7 +2120,7 @@
       <c r="C20" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="31">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2152,7 +2140,7 @@
       <c r="C21" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -2172,7 +2160,7 @@
       <c r="C22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="31">
         <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -2189,9 +2177,9 @@
         <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D23" s="32">
+        <v>251</v>
+      </c>
+      <c r="D23" s="31">
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2201,7 +2189,7 @@
         <v>136</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
@@ -2210,54 +2198,54 @@
       <c r="B24" s="19">
         <v>1</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="31">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D24" s="34">
-        <v>4</v>
-      </c>
-      <c r="E24" s="35" t="s">
+      <c r="G24" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
         <v>268</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>192</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="19">
         <v>2</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="31">
         <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -2267,7 +2255,7 @@
         <v>218</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="7"/>
@@ -2279,7 +2267,7 @@
       <c r="C27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="31">
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -2299,14 +2287,14 @@
       <c r="C28" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="31">
         <v>5</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="7"/>
@@ -2318,7 +2306,7 @@
       <c r="C29" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="31">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2328,7 +2316,7 @@
         <v>123</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="7"/>
@@ -2340,7 +2328,7 @@
       <c r="C30" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="31">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -2350,7 +2338,7 @@
         <v>123</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="7"/>
@@ -2362,7 +2350,7 @@
       <c r="C31" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="31">
         <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2382,7 +2370,7 @@
       <c r="C32" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="31">
         <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2404,7 +2392,7 @@
       <c r="C33" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="31"/>
       <c r="F33" s="8"/>
       <c r="G33" s="2" t="s">
         <v>120</v>
@@ -2419,7 +2407,7 @@
       <c r="C34" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="31">
         <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2441,7 +2429,7 @@
       <c r="C35" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="31">
         <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -2451,7 +2439,7 @@
         <v>56</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="7"/>
@@ -2463,7 +2451,7 @@
       <c r="C36" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="31">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -2475,14 +2463,14 @@
       <c r="H36" s="2"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="19">
         <v>1</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="31">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -2502,7 +2490,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="31">
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -2512,7 +2500,7 @@
         <v>137</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="7"/>
@@ -2522,19 +2510,19 @@
         <v>1</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D39" s="32">
+        <v>247</v>
+      </c>
+      <c r="D39" s="31">
         <v>100</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="7"/>
@@ -2546,7 +2534,7 @@
       <c r="C40" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="31">
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -2566,7 +2554,7 @@
       <c r="C41" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="31">
         <v>40</v>
       </c>
       <c r="H41" s="2"/>
@@ -2575,9 +2563,9 @@
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
       <c r="C42" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D42" s="32">
+        <v>243</v>
+      </c>
+      <c r="D42" s="31">
         <v>30</v>
       </c>
       <c r="G42" s="2"/>
@@ -2589,7 +2577,7 @@
       <c r="C43" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="32"/>
+      <c r="D43" s="31"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="7"/>
@@ -2597,9 +2585,9 @@
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
       <c r="C44" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="32"/>
+        <v>228</v>
+      </c>
+      <c r="D44" s="31"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="7"/>
@@ -2607,9 +2595,9 @@
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
       <c r="C45" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D45" s="32"/>
+        <v>227</v>
+      </c>
+      <c r="D45" s="31"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="7"/>
@@ -2619,7 +2607,7 @@
       <c r="C46" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="32"/>
+      <c r="D46" s="31"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="7"/>
@@ -2627,15 +2615,15 @@
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="19"/>
       <c r="C47" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D47" s="32"/>
+        <v>254</v>
+      </c>
+      <c r="D47" s="31"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="7"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D48" s="32">
+      <c r="D48" s="31">
         <f>SUBTOTAL(109,Tabelle13[Total])</f>
         <v>438</v>
       </c>
@@ -2714,7 +2702,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2806,7 +2794,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C8" s="14">
         <v>2</v>
@@ -2827,7 +2815,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -2846,7 +2834,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -2865,7 +2853,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C11" s="14">
         <v>4</v>
@@ -2884,7 +2872,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12" s="14">
         <v>4</v>
@@ -2901,7 +2889,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C13" s="14">
         <v>4</v>
@@ -2922,7 +2910,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C14" s="14">
         <v>4</v>
@@ -2941,7 +2929,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C15" s="14">
         <v>4</v>
@@ -2986,7 +2974,7 @@
         <v>169</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="2"/>
@@ -3045,7 +3033,7 @@
         <v>179</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H20"/>
     </row>
@@ -3159,7 +3147,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C27" s="14">
         <v>4</v>
@@ -3225,7 +3213,7 @@
         <v>169</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="2"/>
@@ -3453,7 +3441,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C43" s="14">
         <v>2</v>
@@ -3513,7 +3501,7 @@
         <v>17</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F47" s="30" t="s">
         <v>189</v>
@@ -3851,7 +3839,7 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3935,7 +3923,7 @@
         <v>195</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -3971,7 +3959,7 @@
         <v>195</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -4025,7 +4013,7 @@
         <v>195</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -4043,13 +4031,13 @@
         <v>195</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C21" s="25">
         <v>7.75</v>
@@ -4067,7 +4055,7 @@
     </row>
     <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="25">
         <v>16.5</v>
@@ -4082,12 +4070,12 @@
         <v>217</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" s="25">
         <v>0.75</v>
@@ -4105,7 +4093,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C24" s="25">
         <v>1</v>
@@ -4117,13 +4105,13 @@
         <v>195</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C25" s="7">
         <v>0.1</v>

--- a/1 - Anleitung/Materialliste.xlsx
+++ b/1 - Anleitung/Materialliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Eigene Dateien\Makerspace\Roboter\Sandmaltisch\Sandmaltisch RevD\Anleitung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Eigene Dateien\Makerspace\Roboter\Sandmaltisch\Sandmaltisch RevE\Anleitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDD990C-54B6-4479-88F7-5E58968FD768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0805886D-2732-41B3-8CE8-E8D8C8DF568D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{BAA7EA73-824E-4872-A85E-B6C5B02D92A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BAA7EA73-824E-4872-A85E-B6C5B02D92A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Materialliste" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{596D6651-FD03-4DDE-A4C4-9462FA6EE0F2}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{596D6651-FD03-4DDE-A4C4-9462FA6EE0F2}">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{942A2B3D-EFC3-40B7-BA79-AEC8D49C8587}">
+    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{942A2B3D-EFC3-40B7-BA79-AEC8D49C8587}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="272">
   <si>
     <t>Verbindung</t>
   </si>
@@ -735,9 +735,6 @@
     <t>Shop5784810 Store</t>
   </si>
   <si>
-    <t>Moosgummimatten, 25x100cm, 1mm Stärke, weiss oder schwarz</t>
-  </si>
-  <si>
     <t>JST XH Stecker mit Kabel, 3 pin, 10cm</t>
   </si>
   <si>
@@ -876,13 +873,22 @@
     <t>Magnethandel.de</t>
   </si>
   <si>
-    <t>Der Magnet sollte eine Senkbohrung von mindestens 4mm aufweisen, damit die M4-Schraube durchpasst. Eine Lieferung in die Schweiz ist leider sehr teuer. Alternativer Lieferant Supermagnete.ch kommt aufgrund der Mindestbestellmenge nicht günstiger. Auf AliExpress konnte ich keine Alternativen finden. Achtung: Topfmagnete sind ungeeignet!</t>
-  </si>
-  <si>
     <t>ca. 3.5kg</t>
   </si>
   <si>
     <t>Insgesamt wird eine Fläche von ca. 44x79cm benötigt.</t>
+  </si>
+  <si>
+    <t>Moosgummimatten, 25x100cm, 2mm Stärke, weiss oder schwarz</t>
+  </si>
+  <si>
+    <t>https://www.magnethandel.de/neodym-magnete-25-5-mm-n35</t>
+  </si>
+  <si>
+    <t>Neodym Scheibenmagnet,  Ø25 x 5mm, N35</t>
+  </si>
+  <si>
+    <t>Der Magnet sollte eine Senkbohrung von mindestens 4mm aufweisen, damit die M4-Schraube durchpasst. Eine Lieferung in die Schweiz ist leider sehr teuer. Alternativer Lieferant: Supermagnete.ch</t>
   </si>
 </sst>
 </file>
@@ -1410,8 +1416,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AFA01F10-AF12-4B8E-8E09-F6D88200C459}" name="Tabelle13" displayName="Tabelle13" ref="B5:H48" totalsRowCount="1" headerRowDxfId="46" dataDxfId="45" totalsRowDxfId="44">
-  <autoFilter ref="B5:H47" xr:uid="{6D5B232B-CA8A-4210-AC05-EFD82FF823BD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AFA01F10-AF12-4B8E-8E09-F6D88200C459}" name="Tabelle13" displayName="Tabelle13" ref="B5:H49" totalsRowCount="1" headerRowDxfId="46" dataDxfId="45" totalsRowDxfId="44">
+  <autoFilter ref="B5:H48" xr:uid="{6D5B232B-CA8A-4210-AC05-EFD82FF823BD}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{073858BF-EE87-4268-8E9B-C289FB1AC9A8}" name="Anzahl" dataDxfId="43" totalsRowDxfId="6"/>
     <tableColumn id="3" xr3:uid="{BC7F3003-7E3C-480A-B4C3-C32620DF4F92}" name="Produkt" dataDxfId="42" totalsRowDxfId="5"/>
@@ -1757,10 +1763,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I48"/>
+  <dimension ref="B1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,15 +1786,15 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H2" s="29">
-        <v>45443</v>
+        <v>45481</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -1894,7 +1900,7 @@
         <v>127</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="7"/>
@@ -1916,7 +1922,7 @@
         <v>128</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="7"/>
@@ -1938,7 +1944,7 @@
         <v>129</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="7"/>
@@ -1969,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D13" s="31">
         <v>1.5</v>
@@ -1981,7 +1987,7 @@
         <v>211</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1990,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D14" s="31">
         <v>1.5</v>
@@ -2041,10 +2047,10 @@
         <v>216</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="18"/>
@@ -2066,7 +2072,7 @@
         <v>134</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="7"/>
@@ -2088,7 +2094,7 @@
         <v>199</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="7"/>
@@ -2177,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D23" s="31">
         <v>2</v>
@@ -2189,94 +2195,94 @@
         <v>136</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B24" s="19">
         <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D24" s="31">
         <v>4</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
-        <v>268</v>
+      <c r="B25" s="19">
+        <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="31">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D26" s="31">
         <v>10</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="E26" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="19">
-        <v>2</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" s="31">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="7"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="D27" s="31">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="7"/>
     </row>
@@ -2285,38 +2291,36 @@
         <v>1</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="D28" s="31">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>236</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="D29" s="31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="7"/>
@@ -2326,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="31">
         <v>1</v>
@@ -2338,86 +2342,86 @@
         <v>123</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="19">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="31">
         <v>1</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" s="31">
-        <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="D32" s="31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="19">
         <v>2</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="F33" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="D33" s="31">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="G33" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="31">
-        <v>20</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="2" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="7"/>
@@ -2427,135 +2431,146 @@
         <v>1</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="D35" s="31">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>255</v>
+        <v>62</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="19">
         <v>1</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D36" s="31">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>141</v>
+        <v>56</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="19">
         <v>1</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="D37" s="31">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G37" s="2"/>
+        <v>141</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="D38" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>263</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="D39" s="31">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B40" s="19">
         <v>1</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>64</v>
+        <v>246</v>
       </c>
       <c r="D40" s="31">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>54</v>
+        <v>244</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="19"/>
+    <row r="41" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="19">
+        <v>1</v>
+      </c>
       <c r="C41" s="7" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D41" s="31">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="7"/>
@@ -2563,21 +2578,22 @@
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
       <c r="C42" s="7" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="D42" s="31">
-        <v>30</v>
-      </c>
-      <c r="G42" s="2"/>
+        <v>40</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
       <c r="C43" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="31"/>
+        <v>242</v>
+      </c>
+      <c r="D43" s="31">
+        <v>30</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="7"/>
@@ -2585,7 +2601,7 @@
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="19"/>
       <c r="C44" s="7" t="s">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="D44" s="31"/>
       <c r="G44" s="2"/>
@@ -2605,7 +2621,7 @@
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="19"/>
       <c r="C46" s="7" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="D46" s="31"/>
       <c r="G46" s="2"/>
@@ -2615,7 +2631,7 @@
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="19"/>
       <c r="C47" s="7" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="D47" s="31"/>
       <c r="G47" s="2"/>
@@ -2623,33 +2639,43 @@
       <c r="I47" s="7"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D48" s="31">
+      <c r="B48" s="19"/>
+      <c r="C48" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="31">
         <f>SUBTOTAL(109,Tabelle13[Total])</f>
-        <v>438</v>
-      </c>
-      <c r="G48" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="G49" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1" xr:uid="{386E1E41-DF6D-44EB-98A9-5C7264356FC9}"/>
-    <hyperlink ref="F34" r:id="rId2" xr:uid="{3003F009-9C7D-4C4D-8F6E-1491427A1A32}"/>
-    <hyperlink ref="F27" r:id="rId3" xr:uid="{2C902CB5-3C1C-4C94-85AF-5A79B2D3C3EA}"/>
+    <hyperlink ref="F35" r:id="rId2" xr:uid="{3003F009-9C7D-4C4D-8F6E-1491427A1A32}"/>
+    <hyperlink ref="F28" r:id="rId3" xr:uid="{2C902CB5-3C1C-4C94-85AF-5A79B2D3C3EA}"/>
     <hyperlink ref="F23" r:id="rId4" xr:uid="{EF5078C5-2C3C-40CE-B04B-4F779823B623}"/>
-    <hyperlink ref="F35" r:id="rId5" xr:uid="{6112EDB4-D592-46D7-8D06-F886C4820631}"/>
+    <hyperlink ref="F36" r:id="rId5" xr:uid="{6112EDB4-D592-46D7-8D06-F886C4820631}"/>
     <hyperlink ref="F6" r:id="rId6" xr:uid="{D5F74163-32BF-4D93-975D-5F578B5CDB18}"/>
     <hyperlink ref="F9" r:id="rId7" xr:uid="{71AB633C-E775-42DF-B063-89152242D8E4}"/>
     <hyperlink ref="F10" r:id="rId8" xr:uid="{29B49125-792F-4109-ACC4-54D95745833B}"/>
     <hyperlink ref="F22" r:id="rId9" xr:uid="{AC87B042-6342-4518-87EE-683A35F4CDB2}"/>
-    <hyperlink ref="F32" r:id="rId10" xr:uid="{714C1441-20F5-44E9-A6E0-A4A024B7AF63}"/>
-    <hyperlink ref="F39" r:id="rId11" xr:uid="{EA0D15D1-089B-4D9C-9F7D-514CA9489378}"/>
-    <hyperlink ref="F38" r:id="rId12" xr:uid="{6E0F7480-6834-434C-9D7D-88B1D43B1137}"/>
-    <hyperlink ref="F29" r:id="rId13" xr:uid="{98545436-E2FD-4D04-923B-CD72617D87E6}"/>
+    <hyperlink ref="F33" r:id="rId10" xr:uid="{714C1441-20F5-44E9-A6E0-A4A024B7AF63}"/>
+    <hyperlink ref="F40" r:id="rId11" xr:uid="{EA0D15D1-089B-4D9C-9F7D-514CA9489378}"/>
+    <hyperlink ref="F39" r:id="rId12" xr:uid="{6E0F7480-6834-434C-9D7D-88B1D43B1137}"/>
+    <hyperlink ref="F30" r:id="rId13" xr:uid="{98545436-E2FD-4D04-923B-CD72617D87E6}"/>
     <hyperlink ref="F11" r:id="rId14" xr:uid="{364B13A3-D92E-4ABA-A8A4-F9F54E1B891A}"/>
     <hyperlink ref="F12" r:id="rId15" xr:uid="{C982180C-6363-4EE0-877D-3B5FB2413E2C}"/>
-    <hyperlink ref="F40" r:id="rId16" xr:uid="{2CF3C8CD-4A90-4268-B52D-846AD2C0400C}"/>
-    <hyperlink ref="F37" r:id="rId17" xr:uid="{3ECC4702-DA6B-4020-93FC-A96B5E66A18B}"/>
-    <hyperlink ref="F31" r:id="rId18" xr:uid="{B3FA81D6-8C6E-4864-A36F-E9E70265F4EC}"/>
-    <hyperlink ref="F36" r:id="rId19" xr:uid="{D3ACE70F-A73A-42EF-B54E-28EF03B9174F}"/>
+    <hyperlink ref="F41" r:id="rId16" xr:uid="{2CF3C8CD-4A90-4268-B52D-846AD2C0400C}"/>
+    <hyperlink ref="F38" r:id="rId17" xr:uid="{3ECC4702-DA6B-4020-93FC-A96B5E66A18B}"/>
+    <hyperlink ref="F32" r:id="rId18" xr:uid="{B3FA81D6-8C6E-4864-A36F-E9E70265F4EC}"/>
+    <hyperlink ref="F37" r:id="rId19" xr:uid="{D3ACE70F-A73A-42EF-B54E-28EF03B9174F}"/>
     <hyperlink ref="F21" r:id="rId20" xr:uid="{3FE47D1D-48C1-4889-BA1C-53D9B5564B7D}"/>
     <hyperlink ref="F20" r:id="rId21" xr:uid="{C9A39B20-70A4-4761-92AD-A220C5CD6728}"/>
     <hyperlink ref="F19" r:id="rId22" xr:uid="{C5E0BCAF-2EE6-405C-BC0E-F35168099817}"/>
@@ -2659,19 +2685,20 @@
     <hyperlink ref="F15" r:id="rId26" xr:uid="{1C76E130-2DCF-4B42-9881-5EFF3971A763}"/>
     <hyperlink ref="F17" r:id="rId27" xr:uid="{47AF2220-F893-4CA0-A72D-F235E9D592AF}"/>
     <hyperlink ref="F18" r:id="rId28" xr:uid="{755A5AEB-AA8C-485E-B538-298EE2BB01DC}"/>
-    <hyperlink ref="F26" r:id="rId29" xr:uid="{7E730885-C513-46A4-A86E-34BB2234C1D3}"/>
-    <hyperlink ref="F30" r:id="rId30" xr:uid="{AD047A25-2F2A-4102-B71B-5B5446A93039}"/>
+    <hyperlink ref="F27" r:id="rId29" xr:uid="{7E730885-C513-46A4-A86E-34BB2234C1D3}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{AD047A25-2F2A-4102-B71B-5B5446A93039}"/>
     <hyperlink ref="F16" r:id="rId31" xr:uid="{EA816293-F76C-4E06-BC59-D666AE4C77B6}"/>
-    <hyperlink ref="F25" r:id="rId32" xr:uid="{89F8AAF8-8B5A-4FFC-9BC8-ADE340296380}"/>
+    <hyperlink ref="F26" r:id="rId32" xr:uid="{89F8AAF8-8B5A-4FFC-9BC8-ADE340296380}"/>
+    <hyperlink ref="F24" r:id="rId33" xr:uid="{1435BE26-BD45-476F-9187-6E25C38C5BFE}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="landscape" r:id="rId33"/>
+  <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="landscape" r:id="rId34"/>
   <ignoredErrors>
-    <ignoredError sqref="D6:D42" calculatedColumn="1"/>
+    <ignoredError sqref="D26:D43 D6:D25" calculatedColumn="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId34"/>
+  <legacyDrawing r:id="rId35"/>
   <tableParts count="1">
-    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2702,7 +2729,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2794,7 +2821,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" s="14">
         <v>2</v>
@@ -2815,7 +2842,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -2834,7 +2861,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -2853,7 +2880,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11" s="14">
         <v>4</v>
@@ -2872,7 +2899,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" s="14">
         <v>4</v>
@@ -2889,7 +2916,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C13" s="14">
         <v>4</v>
@@ -2910,7 +2937,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C14" s="14">
         <v>4</v>
@@ -2929,7 +2956,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C15" s="14">
         <v>4</v>
@@ -2974,7 +3001,7 @@
         <v>169</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="2"/>
@@ -3033,7 +3060,7 @@
         <v>179</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H20"/>
     </row>
@@ -3147,7 +3174,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C27" s="14">
         <v>4</v>
@@ -3213,7 +3240,7 @@
         <v>169</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="2"/>
@@ -3441,7 +3468,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C43" s="14">
         <v>2</v>
@@ -3501,7 +3528,7 @@
         <v>17</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F47" s="30" t="s">
         <v>189</v>
@@ -3839,7 +3866,7 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3923,7 +3950,7 @@
         <v>195</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -3959,7 +3986,7 @@
         <v>195</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -4013,7 +4040,7 @@
         <v>195</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -4031,13 +4058,13 @@
         <v>195</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="25">
         <v>7.75</v>
@@ -4055,7 +4082,7 @@
     </row>
     <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="25">
         <v>16.5</v>
@@ -4070,12 +4097,12 @@
         <v>217</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" s="25">
         <v>0.75</v>
@@ -4093,7 +4120,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C24" s="25">
         <v>1</v>
@@ -4105,13 +4132,13 @@
         <v>195</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C25" s="7">
         <v>0.1</v>

--- a/1 - Anleitung/Materialliste.xlsx
+++ b/1 - Anleitung/Materialliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Eigene Dateien\Makerspace\Roboter\Sandmaltisch\Sandmaltisch RevE\Anleitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0805886D-2732-41B3-8CE8-E8D8C8DF568D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CEC14C-1C62-4549-8B96-643D1A8A34DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BAA7EA73-824E-4872-A85E-B6C5B02D92A8}"/>
+    <workbookView xWindow="600" yWindow="810" windowWidth="26865" windowHeight="15990" xr2:uid="{BAA7EA73-824E-4872-A85E-B6C5B02D92A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Materialliste" sheetId="8" r:id="rId1"/>
@@ -879,9 +879,6 @@
     <t>Insgesamt wird eine Fläche von ca. 44x79cm benötigt.</t>
   </si>
   <si>
-    <t>Moosgummimatten, 25x100cm, 2mm Stärke, weiss oder schwarz</t>
-  </si>
-  <si>
     <t>https://www.magnethandel.de/neodym-magnete-25-5-mm-n35</t>
   </si>
   <si>
@@ -889,6 +886,9 @@
   </si>
   <si>
     <t>Der Magnet sollte eine Senkbohrung von mindestens 4mm aufweisen, damit die M4-Schraube durchpasst. Eine Lieferung in die Schweiz ist leider sehr teuer. Alternativer Lieferant: Supermagnete.ch</t>
+  </si>
+  <si>
+    <t>Moosgummimatten, 25x100cm, 3mm Stärke, weiss oder schwarz</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1766,7 @@
   <dimension ref="B1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,7 +1794,7 @@
         <v>240</v>
       </c>
       <c r="H2" s="29">
-        <v>45481</v>
+        <v>45542</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -2217,7 +2217,7 @@
         <v>264</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D25" s="31">
         <v>3</v>
@@ -2236,7 +2236,7 @@
         <v>265</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2269,7 +2269,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D27" s="31">
         <v>4</v>

--- a/1 - Anleitung/Materialliste.xlsx
+++ b/1 - Anleitung/Materialliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Eigene Dateien\Makerspace\Roboter\Sandmaltisch\Sandmaltisch RevE\Anleitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CEC14C-1C62-4549-8B96-643D1A8A34DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD178190-1966-4772-B1D1-E035FC1AF284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="810" windowWidth="26865" windowHeight="15990" xr2:uid="{BAA7EA73-824E-4872-A85E-B6C5B02D92A8}"/>
+    <workbookView xWindow="-24375" yWindow="2220" windowWidth="22605" windowHeight="15000" xr2:uid="{BAA7EA73-824E-4872-A85E-B6C5B02D92A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Materialliste" sheetId="8" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="270">
   <si>
     <t>Verbindung</t>
   </si>
@@ -729,12 +729,6 @@
     <t>PLA Schwarz</t>
   </si>
   <si>
-    <t>https://de.aliexpress.com/item/1005006267935447.html</t>
-  </si>
-  <si>
-    <t>Shop5784810 Store</t>
-  </si>
-  <si>
     <t>JST XH Stecker mit Kabel, 3 pin, 10cm</t>
   </si>
   <si>
@@ -834,9 +828,6 @@
     <t>Die Holzplatten dienen zur seitlichen Abdeckung des technischen Zwischenbaus.</t>
   </si>
   <si>
-    <t>Starkes Klebeband, z.B. Gaffer-Tape</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -876,9 +867,6 @@
     <t>ca. 3.5kg</t>
   </si>
   <si>
-    <t>Insgesamt wird eine Fläche von ca. 44x79cm benötigt.</t>
-  </si>
-  <si>
     <t>https://www.magnethandel.de/neodym-magnete-25-5-mm-n35</t>
   </si>
   <si>
@@ -888,7 +876,13 @@
     <t>Der Magnet sollte eine Senkbohrung von mindestens 4mm aufweisen, damit die M4-Schraube durchpasst. Eine Lieferung in die Schweiz ist leider sehr teuer. Alternativer Lieferant: Supermagnete.ch</t>
   </si>
   <si>
-    <t>Moosgummimatten, 25x100cm, 3mm Stärke, weiss oder schwarz</t>
+    <t>Moosgummimatte, 50x100cm, 2mm Stärke, schwarz</t>
+  </si>
+  <si>
+    <t>https://netco-shop.de/product_info.php?products_id=301&amp;MODsid=ivu8c33b531trk48m20c3l3pdq</t>
+  </si>
+  <si>
+    <t>Netco Shop</t>
   </si>
 </sst>
 </file>
@@ -1135,28 +1129,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$EUR]\ #,##0.00"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1242,20 +1214,39 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$EUR]\ #,##0.00"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$EUR]\ #,##0.00"/>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1265,6 +1256,9 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1419,45 +1413,45 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AFA01F10-AF12-4B8E-8E09-F6D88200C459}" name="Tabelle13" displayName="Tabelle13" ref="B5:H49" totalsRowCount="1" headerRowDxfId="46" dataDxfId="45" totalsRowDxfId="44">
   <autoFilter ref="B5:H48" xr:uid="{6D5B232B-CA8A-4210-AC05-EFD82FF823BD}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{073858BF-EE87-4268-8E9B-C289FB1AC9A8}" name="Anzahl" dataDxfId="43" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{BC7F3003-7E3C-480A-B4C3-C32620DF4F92}" name="Produkt" dataDxfId="42" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{3A0499AA-B522-4D87-AA6D-2C144B43614E}" name="Total" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{073858BF-EE87-4268-8E9B-C289FB1AC9A8}" name="Anzahl" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{BC7F3003-7E3C-480A-B4C3-C32620DF4F92}" name="Produkt" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{3A0499AA-B522-4D87-AA6D-2C144B43614E}" name="Total" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>#REF!*#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{523CE03D-C59B-4634-866E-4AB03F3C12C2}" name="Lieferant" dataDxfId="40" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{49BAE1C5-92A1-4500-97B2-9E6C7FB68813}" name="Link" dataDxfId="39" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{C6ED0749-3909-426C-BF13-856E09513DE1}" name="Hinweis" dataDxfId="38" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{928936BA-F06B-4C60-96B0-9C18BE2987D7}" name="Status" dataDxfId="37" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{523CE03D-C59B-4634-866E-4AB03F3C12C2}" name="Lieferant" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{49BAE1C5-92A1-4500-97B2-9E6C7FB68813}" name="Link" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{C6ED0749-3909-426C-BF13-856E09513DE1}" name="Hinweis" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{928936BA-F06B-4C60-96B0-9C18BE2987D7}" name="Status" dataDxfId="31" totalsRowDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FD50B609-FBD2-486B-B84A-9A6A6279751A}" name="Tabelle135" displayName="Tabelle135" ref="B4:G44" totalsRowCount="1" headerRowDxfId="36" dataDxfId="35" totalsRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FD50B609-FBD2-486B-B84A-9A6A6279751A}" name="Tabelle135" displayName="Tabelle135" ref="B4:G44" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
   <autoFilter ref="B4:G43" xr:uid="{6D5B232B-CA8A-4210-AC05-EFD82FF823BD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AE097796-2AAB-42E0-B499-6613EEFBFDB0}" name="Verbindung" totalsRowLabel="Ergebnis" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{AD6AFE2E-DF8F-43FF-AF3B-1627BE50299C}" name="Anzahl" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{AFD5420F-7B0C-48FE-B132-A649F31D8627}" name="Artikel" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{1340A571-934B-4B9A-B23D-6FDA42E3B577}" name="Abmessung" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{A3713BA1-C178-4B09-995F-EED66D08246E}" name="Empfehlung Kopf" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{E40B9EC5-ABB7-48E4-A5D4-C3008A29F545}" name="Hinweis" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{AE097796-2AAB-42E0-B499-6613EEFBFDB0}" name="Verbindung" totalsRowLabel="Ergebnis" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{AD6AFE2E-DF8F-43FF-AF3B-1627BE50299C}" name="Anzahl" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{AFD5420F-7B0C-48FE-B132-A649F31D8627}" name="Artikel" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{1340A571-934B-4B9A-B23D-6FDA42E3B577}" name="Abmessung" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{A3713BA1-C178-4B09-995F-EED66D08246E}" name="Empfehlung Kopf" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{E40B9EC5-ABB7-48E4-A5D4-C3008A29F545}" name="Hinweis" dataDxfId="16" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{657C5AD1-BC46-422C-A63D-F37A7105BD4B}" name="Tabelle2" displayName="Tabelle2" ref="B12:G26" totalsRowCount="1" headerRowDxfId="21" dataDxfId="20" totalsRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{657C5AD1-BC46-422C-A63D-F37A7105BD4B}" name="Tabelle2" displayName="Tabelle2" ref="B12:G26" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12">
   <autoFilter ref="B12:G25" xr:uid="{657C5AD1-BC46-422C-A63D-F37A7105BD4B}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{C48F0E04-0285-4FF5-9A0F-94989777A5C2}" name="3MF-Datei" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{6C64B829-EB0D-4054-91E1-DFA8B2A862D1}" name="Druckzeit (h)" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{FE03BD70-E89C-433B-AE69-C3D43F322331}" name="Gewicht (g)" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{479D8F59-8F92-4AA6-B320-E9C5C4EE2384}" name="Sichtbar" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{95DB9691-08BD-4E47-9DB4-7F0205D576AB}" name="Filament" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{088329C1-1283-41B4-9BFC-A59082683237}" name="Hinweis" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C48F0E04-0285-4FF5-9A0F-94989777A5C2}" name="3MF-Datei" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{6C64B829-EB0D-4054-91E1-DFA8B2A862D1}" name="Druckzeit (h)" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{FE03BD70-E89C-433B-AE69-C3D43F322331}" name="Gewicht (g)" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{479D8F59-8F92-4AA6-B320-E9C5C4EE2384}" name="Sichtbar" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{95DB9691-08BD-4E47-9DB4-7F0205D576AB}" name="Filament" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{088329C1-1283-41B4-9BFC-A59082683237}" name="Hinweis" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1766,7 +1760,7 @@
   <dimension ref="B1:I49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,15 +1780,15 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H2" s="29">
-        <v>45542</v>
+        <v>45620</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -1900,7 +1894,7 @@
         <v>127</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="7"/>
@@ -1922,7 +1916,7 @@
         <v>128</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="7"/>
@@ -1944,7 +1938,7 @@
         <v>129</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="7"/>
@@ -1975,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D13" s="31">
         <v>1.5</v>
@@ -1987,7 +1981,7 @@
         <v>211</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1996,7 +1990,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D14" s="31">
         <v>1.5</v>
@@ -2047,10 +2041,10 @@
         <v>216</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="18"/>
@@ -2072,7 +2066,7 @@
         <v>134</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="7"/>
@@ -2094,7 +2088,7 @@
         <v>199</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="7"/>
@@ -2183,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D23" s="31">
         <v>2</v>
@@ -2195,7 +2189,7 @@
         <v>136</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="7"/>
@@ -2205,19 +2199,19 @@
         <v>1</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D24" s="31">
         <v>4</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="7"/>
@@ -2227,16 +2221,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D25" s="31">
         <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2244,7 +2238,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>68</v>
@@ -2253,36 +2247,34 @@
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>192</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D27" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="7"/>
     </row>
@@ -2320,7 +2312,7 @@
         <v>38</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="7"/>
@@ -2342,7 +2334,7 @@
         <v>123</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="7"/>
@@ -2364,7 +2356,7 @@
         <v>123</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="7"/>
@@ -2465,7 +2457,7 @@
         <v>56</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="7"/>
@@ -2526,7 +2518,7 @@
         <v>137</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="7"/>
@@ -2536,19 +2528,19 @@
         <v>1</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D40" s="31">
         <v>100</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="7"/>
@@ -2589,7 +2581,7 @@
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
       <c r="C43" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D43" s="31">
         <v>30</v>
@@ -2611,7 +2603,7 @@
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
       <c r="C45" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D45" s="31"/>
       <c r="G45" s="2"/>
@@ -2621,7 +2613,7 @@
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="19"/>
       <c r="C46" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D46" s="31"/>
       <c r="G46" s="2"/>
@@ -2640,9 +2632,6 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="19"/>
-      <c r="C48" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="D48" s="31"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2651,7 +2640,7 @@
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" s="31">
         <f>SUBTOTAL(109,Tabelle13[Total])</f>
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G49" s="2"/>
     </row>
@@ -2685,20 +2674,19 @@
     <hyperlink ref="F15" r:id="rId26" xr:uid="{1C76E130-2DCF-4B42-9881-5EFF3971A763}"/>
     <hyperlink ref="F17" r:id="rId27" xr:uid="{47AF2220-F893-4CA0-A72D-F235E9D592AF}"/>
     <hyperlink ref="F18" r:id="rId28" xr:uid="{755A5AEB-AA8C-485E-B538-298EE2BB01DC}"/>
-    <hyperlink ref="F27" r:id="rId29" xr:uid="{7E730885-C513-46A4-A86E-34BB2234C1D3}"/>
-    <hyperlink ref="F31" r:id="rId30" xr:uid="{AD047A25-2F2A-4102-B71B-5B5446A93039}"/>
-    <hyperlink ref="F16" r:id="rId31" xr:uid="{EA816293-F76C-4E06-BC59-D666AE4C77B6}"/>
-    <hyperlink ref="F26" r:id="rId32" xr:uid="{89F8AAF8-8B5A-4FFC-9BC8-ADE340296380}"/>
-    <hyperlink ref="F24" r:id="rId33" xr:uid="{1435BE26-BD45-476F-9187-6E25C38C5BFE}"/>
+    <hyperlink ref="F31" r:id="rId29" xr:uid="{AD047A25-2F2A-4102-B71B-5B5446A93039}"/>
+    <hyperlink ref="F16" r:id="rId30" xr:uid="{EA816293-F76C-4E06-BC59-D666AE4C77B6}"/>
+    <hyperlink ref="F26" r:id="rId31" xr:uid="{89F8AAF8-8B5A-4FFC-9BC8-ADE340296380}"/>
+    <hyperlink ref="F24" r:id="rId32" xr:uid="{1435BE26-BD45-476F-9187-6E25C38C5BFE}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="landscape" r:id="rId34"/>
+  <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="landscape" r:id="rId33"/>
   <ignoredErrors>
-    <ignoredError sqref="D26:D43 D6:D25" calculatedColumn="1"/>
+    <ignoredError sqref="D26 D6:D25 D27:D43" calculatedColumn="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId35"/>
+  <legacyDrawing r:id="rId34"/>
   <tableParts count="1">
-    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2729,7 +2717,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -2821,7 +2809,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C8" s="14">
         <v>2</v>
@@ -2842,7 +2830,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -2861,7 +2849,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -2880,7 +2868,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C11" s="14">
         <v>4</v>
@@ -2899,7 +2887,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C12" s="14">
         <v>4</v>
@@ -2916,7 +2904,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C13" s="14">
         <v>4</v>
@@ -2937,7 +2925,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" s="14">
         <v>4</v>
@@ -2956,7 +2944,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C15" s="14">
         <v>4</v>
@@ -3001,7 +2989,7 @@
         <v>169</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="2"/>
@@ -3060,7 +3048,7 @@
         <v>179</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H20"/>
     </row>
@@ -3174,7 +3162,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C27" s="14">
         <v>4</v>
@@ -3240,7 +3228,7 @@
         <v>169</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="2"/>
@@ -3468,7 +3456,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C43" s="14">
         <v>2</v>
@@ -3528,7 +3516,7 @@
         <v>17</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F47" s="30" t="s">
         <v>189</v>
@@ -3866,7 +3854,7 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3950,7 +3938,7 @@
         <v>195</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -3986,7 +3974,7 @@
         <v>195</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -4040,7 +4028,7 @@
         <v>195</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -4058,13 +4046,13 @@
         <v>195</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C21" s="25">
         <v>7.75</v>
@@ -4082,7 +4070,7 @@
     </row>
     <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C22" s="25">
         <v>16.5</v>
@@ -4097,12 +4085,12 @@
         <v>217</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C23" s="25">
         <v>0.75</v>
@@ -4120,7 +4108,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C24" s="25">
         <v>1</v>
@@ -4132,13 +4120,13 @@
         <v>195</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C25" s="7">
         <v>0.1</v>
